--- a/Project3/project3_data.xlsx
+++ b/Project3/project3_data.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$15:$C$16,Sheet1!$I$2:$I$8</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$15:$C$16,Sheet1!$I$3:$I$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$I$2:$I$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$I$2:$I$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$I$3:$I$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$I$3:$I$8</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -31,7 +31,7 @@
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$G$2:$G$8</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$H$2:$H$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$H$3:$H$8</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>mmad</t>
+  </si>
+  <si>
+    <t>exp lad</t>
+  </si>
+  <si>
+    <t>alternate points</t>
   </si>
 </sst>
 </file>
@@ -140,8 +146,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -182,7 +196,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -199,6 +213,10 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -215,6 +233,10 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,8 +446,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2076578008"/>
-        <c:axId val="2076600760"/>
+        <c:axId val="2116863064"/>
+        <c:axId val="2116872296"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -540,11 +562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076578008"/>
-        <c:axId val="2076600760"/>
+        <c:axId val="2116863064"/>
+        <c:axId val="2116872296"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2076578008"/>
+        <c:axId val="2116863064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076600760"/>
+        <c:crossAx val="2116872296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -645,7 +667,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076600760"/>
+        <c:axId val="2116872296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076578008"/>
+        <c:crossAx val="2116863064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -981,8 +1003,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143195848"/>
-        <c:axId val="2141119640"/>
+        <c:axId val="2118788248"/>
+        <c:axId val="2118797192"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1097,11 +1119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143195848"/>
-        <c:axId val="2141119640"/>
+        <c:axId val="2118788248"/>
+        <c:axId val="2118797192"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2143195848"/>
+        <c:axId val="2118788248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141119640"/>
+        <c:crossAx val="2118797192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1202,7 +1224,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141119640"/>
+        <c:axId val="2118797192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1317,397 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143195848"/>
+        <c:crossAx val="2118788248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.140852051388313"/>
+                  <c:y val="-0.0146238116556501"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF7B-440A-B270-773C5C2DE830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2126306312"/>
+        <c:axId val="2126315400"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="2126306312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X - Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126315400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126315400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y - Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126306312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1909,23 +2321,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CFCDE2-0589-493E-A2C2-2E645916D1A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CFCDE2-0589-493E-A2C2-2E645916D1A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,23 +2357,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CFCDE2-0589-493E-A2C2-2E645916D1A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CFCDE2-0589-493E-A2C2-2E645916D1A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,6 +2388,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CFCDE2-0589-493E-A2C2-2E645916D1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2239,7 +2689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2247,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2263,7 +2713,7 @@
     <col min="11" max="11" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2285,8 +2735,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2309,9 +2762,14 @@
         <v>6.8330000000000002</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2334,9 +2792,14 @@
         <v>6.8330000000000002</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2359,9 +2822,14 @@
         <v>9.1660000000000004</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2385,9 +2853,14 @@
         <v>11.499000000000001</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2411,9 +2884,14 @@
         <v>13.832000000000001</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2437,9 +2915,14 @@
         <v>16.164999999999999</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2465,7 +2948,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="9" spans="1:9">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2480,8 +2966,9 @@
         <f>SUM(G2:G8)</f>
         <v>0</v>
       </c>
+      <c r="H10" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -2491,8 +2978,11 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2505,8 +2995,11 @@
       <c r="D15">
         <v>2.88</v>
       </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2518,6 +3011,9 @@
       </c>
       <c r="D16">
         <v>2.31</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
